--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17835"/>
+    <workbookView windowWidth="28740" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姓名</t>
-  </si>
-  <si>
-    <t>部门</t>
   </si>
   <si>
     <t>学工号</t>
@@ -42,6 +39,30 @@
   </si>
   <si>
     <t>角色</t>
+  </si>
+  <si>
+    <t>院系/部门</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>职称</t>
   </si>
 </sst>
 </file>
@@ -1186,15 +1207,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,6 +1231,27 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
